--- a/src/test/resources/test-data/usecase4-data.xlsx
+++ b/src/test/resources/test-data/usecase4-data.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mahmud/Desktop/my-repos/qa-automation-moda-framework/src/test/resources/test-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4D90DC-0B4A-6540-8B91-2B5134BDCA4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527485B8-05E8-BF41-AFA4-9A678095566E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17300" xr2:uid="{59B0C751-45AA-2E42-8164-1453298C13BA}"/>
   </bookViews>
   <sheets>
-    <sheet name="usercase4" sheetId="1" r:id="rId1"/>
+    <sheet name="usecase4" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
     <sheet name="usecase4groups" sheetId="2" r:id="rId3"/>
   </sheets>
@@ -493,7 +493,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD9"/>
+      <selection activeCell="A4" sqref="A4:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
